--- a/cocos-lua.xlsx
+++ b/cocos-lua.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930216EF-89A5-47D4-B6E4-D3D205934B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="130">
   <si>
     <t>Object压人堆栈</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,13 +213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mapsuper</t>
-  </si>
-  <si>
-    <t>??待补充</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tolua_cclass(tolua_S,"Ref","cc.Ref","",nullptr);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,14 +467,58 @@
   </si>
   <si>
     <t>获取继承关系，设置type和const type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从注册表找到"tolua_super"对应的表super</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapsuper(lua_State* L, const char* name, const char* base)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到name对应的metatable:mt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有则新建一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找super[mt]对应的表table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取base对应的metatable:mt2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果mt2有效则：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历mt2，将key,value全部插入到table中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持栈顶为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置table[basename]=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断继承关系的,可以通过table[basename]==1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,6 +542,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -527,12 +570,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -553,7 +599,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -628,23 +674,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -680,23 +709,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -872,21 +884,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27" style="2" customWidth="1"/>
-    <col min="2" max="2" width="44.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="53.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="55.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="15.75" style="1"/>
+    <col min="5" max="5" width="38.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="15.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -921,36 +934,36 @@
     </row>
     <row r="7" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -963,10 +976,10 @@
         <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -981,7 +994,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -990,61 +1003,61 @@
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1052,12 +1065,12 @@
         <v>45</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1067,15 +1080,15 @@
     <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
@@ -1091,387 +1104,430 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D49" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E50" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E51" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E52" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E53" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E54" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E55" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F56" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E57" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C58" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="1" t="s">
+    </row>
+    <row r="59" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D59" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D60" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C50" s="1" t="s">
+    <row r="61" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D61" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D51" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D52" s="1" t="s">
+    <row r="62" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D62" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D63" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D53" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D54" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E54" s="1" t="s">
+    <row r="64" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D55" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C56" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D57" s="1" t="s">
+    <row r="66" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D66" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E57" s="1" t="s">
+    </row>
+    <row r="67" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D69" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D58" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" spans="3:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C60" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D61" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C62" s="1" t="s">
+    <row r="70" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D63" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D65" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C66" s="1" t="s">
+    <row r="71" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D71" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C72" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D73" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="1" t="s">
+    <row r="75" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C67" s="1" t="s">
+    </row>
+    <row r="77" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="C77" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C68" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="C69" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="2" t="s">
+    <row r="80" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="1" t="s">
+      <c r="C81" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C75" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="2" t="s">
+    </row>
+    <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B82" s="1" t="s">
+    <row r="90" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="B90" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B83" s="1" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B91" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C84" s="1" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C92" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C85" s="1" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C93" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C86" s="1" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C94" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C87" s="1" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C95" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C88" s="1" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C96" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D89" s="1" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D97" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D90" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D91" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E92" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E93" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E94" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D95" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E100" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E101" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E102" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D103" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D106" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E99" s="1" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E107" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="2" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A109" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B102" s="1" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B110" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C103" s="1" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C111" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C104" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C105" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="C106" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C107" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C108" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C109" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="D110" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D111" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C113" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="C114" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C115" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C116" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C117" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D118" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D119" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C120" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C113" s="1" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C121" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C114" s="1" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C122" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A119" s="2" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="D127" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="D128" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="129" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C129" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D120" s="1" t="s">
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C130" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C121" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C122" s="1" t="s">
+    <row r="131" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D131" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D122" s="1" t="s">
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D132" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D123" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D124" s="1" t="s">
+    <row r="133" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C133" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C125" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/cocos-lua.xlsx
+++ b/cocos-lua.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="159">
   <si>
     <t>Object压人堆栈</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,175 +342,283 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>注册tolua表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建名字是"tolua_commonclass"的原表，设置__Index,__newindex,__gc,__call,__add,等接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置metatable[".classname"]="tolua_commonclass"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这两个表分别为upvalue1和2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua调用Create创建Obj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cobj = new cocos2d::Sprite3DCache();</t>
+  </si>
+  <si>
+    <t>tolua_pushusertype(tolua_S,(void*)cobj,"cc.Sprite3DCache");</t>
+  </si>
+  <si>
+    <t>创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tolua_register_gc(tolua_S,lua_gettop(tolua_S));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在注册表中找到"tolua_gc"对应的表tb</t>
+  </si>
+  <si>
+    <t>在注册表中找到"tolua_gc"对应的表tb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb[ptr]=栈顶userdata对应的metatable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压入堆栈，栈顶为对应的userdata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua层userdata销毁时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用GC方法class_gc_event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压入class_gc_event第一个upvalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取tb[ptr]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取userdata的metatable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即之前压入的userdata的metatable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果相同则：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取上面metatable的".collector"属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是函数，则调用，参数为UD（可以是C++层的销毁函数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是则插入默认的tolua_default_collect并调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部free掉userdata对应的object指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置tb[ptr]=nil删除对应的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要针对原生的object对象析构函数中会进行其他释放时的操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓展注册".collector"销毁函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人类需要，尤其是自己实现的类，析构里面还会释放其他内存，在Lua层会释放的userdata时候，需要内部调用析构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到类对应的metatable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tolua_function(tolua_S, ".collector", lua_collect_AutoPolygon);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在metatable中注册.collector回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从注册表找到"tolua_super"对应的表super</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapsuper(lua_State* L, const char* name, const char* base)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到name对应的metatable:mt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有则新建一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找super[mt]对应的表table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取base对应的metatable:mt2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果mt2有效则：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历mt2，将key,value全部插入到table中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持栈顶为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置table[basename]=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断继承关系的,可以通过table[basename]==1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>tolua_newmetatable(L,"tolua_commonclass");</t>
-  </si>
-  <si>
-    <t>注册tolua表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建名字是"tolua_commonclass"的原表，设置__Index,__newindex,__gc,__call,__add,等接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置metatable[".classname"]="tolua_commonclass"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这两个表分别为upvalue1和2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lua调用Create创建Obj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cobj = new cocos2d::Sprite3DCache();</t>
-  </si>
-  <si>
-    <t>tolua_pushusertype(tolua_S,(void*)cobj,"cc.Sprite3DCache");</t>
-  </si>
-  <si>
-    <t>创建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tolua_register_gc(tolua_S,lua_gettop(tolua_S));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在注册表中找到"tolua_gc"对应的表tb</t>
-  </si>
-  <si>
-    <t>在注册表中找到"tolua_gc"对应的表tb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb[ptr]=栈顶userdata对应的metatable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压入堆栈，栈顶为对应的userdata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lua层userdata销毁时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用GC方法class_gc_event</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压入class_gc_event第一个upvalue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取tb[ptr]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取userdata的metatable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>即之前压入的userdata的metatable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果相同则：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取上面metatable的".collector"属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果是函数，则调用，参数为UD（可以是C++层的销毁函数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不是则插入默认的tolua_default_collect并调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部free掉userdata对应的object指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置tb[ptr]=nil删除对应的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要针对原生的object对象析构函数中会进行其他释放时的操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拓展注册".collector"销毁函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人类需要，尤其是自己实现的类，析构里面还会释放其他内存，在Lua层会释放的userdata时候，需要内部调用析构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找到类对应的metatable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tolua_function(tolua_S, ".collector", lua_collect_AutoPolygon);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在metatable中注册.collector回调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取继承关系，设置type和const type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从注册表找到"tolua_super"对应的表super</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mapsuper(lua_State* L, const char* name, const char* base)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找到name对应的metatable:mt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有则新建一个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查找super[mt]对应的表table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取base对应的metatable:mt2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果mt2有效则：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遍历mt2，将key,value全部插入到table中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保持栈顶为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置table[basename]=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断继承关系的,可以通过table[basename]==1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置cc.ref和const cc.ref的继承关系，没有基类默认是tolua_commonclass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取class1的mt1,获取class2的mt2,设置mt1的mt=mt2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tolua_cclass(tolua_S,"Ref","cc.Ref","",nullptr);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapsuper(L,name,base);</t>
+  </si>
+  <si>
+    <t>mapsuper(L,cname,cbase);</t>
+  </si>
+  <si>
+    <t>mapinheritance(L,cname,name);</t>
+  </si>
+  <si>
+    <t>toluafix_open</t>
+  </si>
+  <si>
+    <t>在注册表中创建"toluafix_refid_ptr_mapping"的表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在注册表中创建"toluafix_refid_type_mapping"的表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua Function注册到c++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int toluafix_ref_function(lua_State* L, int lo, int def)</t>
+  </si>
+  <si>
+    <t>在注册表中创建"toluafix_refid_function_mapping"的表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在注册表中获取key["toluafix_refid_function_mapping"]的变量tl</t>
+  </si>
+  <si>
+    <t>static int s_function_ref_id = 0</t>
+  </si>
+  <si>
+    <t>func为栈顶的函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态计数器s_function_ref_id++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回s_function_ref_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从此C++层可以保留这个ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUA层注册函数到c++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void toluafix_get_function_by_refid(lua_State* L, int refid)</t>
+  </si>
+  <si>
+    <t>将refid对应的函数压栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void toluafix_remove_function_by_refid(lua_State* L, int refid)</t>
+  </si>
+  <si>
+    <t>删除Lua层等映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在注册表中获取key["toluafix_refid_function_mapping"]的变量tl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tl[s_function_ref_id]=nil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在注册表中获取key["toluafix_refid_function_mapping"]的变量tl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tl[s_function_ref_id]=func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>func=tl[s_function_ref_id]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持栈顶为func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c++层使用静态int生成唯一ID，单线程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -885,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -940,7 +1048,7 @@
         <v>84</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -950,584 +1058,716 @@
     </row>
     <row r="9" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="1" t="s">
+    <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="1" t="s">
+    <row r="49" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="1" t="s">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C50" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="1" t="s">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="1" t="s">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C52" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D33" s="1" t="s">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D53" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="1" t="s">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C54" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D35" s="1" t="s">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D55" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C36" s="1" t="s">
+    <row r="56" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C56" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C37" s="1" t="s">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C57" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C38" s="1" t="s">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C58" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="2" t="s">
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="1" t="s">
+    <row r="65" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C46" s="1" t="s">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C66" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="D47" s="1" t="s">
+    <row r="67" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="D67" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D48" s="1" t="s">
+    <row r="68" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D68" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="3:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D49" s="1" t="s">
+    <row r="69" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D69" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E70" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E71" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E72" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E49" s="3" t="s">
+    </row>
+    <row r="73" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E73" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E74" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E75" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F76" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E77" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D79" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E80" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E50" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E51" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E52" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E53" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E54" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E55" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F56" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E57" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C58" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D59" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D60" s="1" t="s">
+    <row r="81" spans="3:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E81" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D82" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D83" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D84" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D61" s="1" t="s">
+    <row r="85" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D85" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D62" s="1" t="s">
+    <row r="86" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D86" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D63" s="1" t="s">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D87" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="1" t="s">
+    <row r="88" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C88" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D65" s="1" t="s">
+    <row r="89" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D89" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D66" s="1" t="s">
+    <row r="90" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D90" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C68" s="1" t="s">
+    <row r="91" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" spans="3:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C92" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D69" s="1" t="s">
+    <row r="93" spans="3:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D93" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C70" s="1" t="s">
+    <row r="94" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D71" s="1" t="s">
+    <row r="95" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D95" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C72" s="1" t="s">
+    <row r="96" spans="3:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C96" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D73" s="1" t="s">
+    <row r="97" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D97" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="1" t="s">
+    <row r="98" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C98" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="1" t="s">
+    <row r="99" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C75" s="1" t="s">
+    </row>
+    <row r="100" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="1" t="s">
+    <row r="101" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="C101" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="C77" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="2" t="s">
+    </row>
+    <row r="104" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C104" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C105" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="C106" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C107" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A113" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B114" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B115" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C116" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C117" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C118" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C119" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C120" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D121" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E124" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E125" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E126" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D127" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D130" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E131" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A133" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B134" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C135" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C136" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C137" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="C138" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C139" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C140" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C141" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D142" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D143" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C144" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C145" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C146" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A151" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="1" t="s">
+      <c r="B151" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="B90" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B91" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C92" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C93" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C94" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C95" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C96" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D97" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D98" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D99" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E100" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E101" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E102" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D103" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D106" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E107" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A109" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B110" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C111" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C112" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C113" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="C114" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C115" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C116" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C117" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D118" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D119" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C120" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C121" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C122" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C127" s="1" t="s">
+    </row>
+    <row r="152" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C128" s="1" t="s">
+      <c r="D152" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C153" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D128" s="1" t="s">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C154" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C129" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C130" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D130" s="1" t="s">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D155" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D131" s="1" t="s">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D156" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D132" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E132" s="1" t="s">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C157" s="1" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C133" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
